--- a/docs/vpc/SPR.xlsx
+++ b/docs/vpc/SPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidekazu Kato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDE38E8-9344-4239-B22E-E3B6B0B3FF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E10DBF-CBD2-4787-91FD-309C320B6D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1370" yWindow="720" windowWidth="16190" windowHeight="8830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="140" windowWidth="16190" windowHeight="9650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Name</t>
     <phoneticPr fontId="18"/>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>PC</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SPSR_EL2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>VM parameter</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ELR_EL2</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1117,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1128,8 +1140,8 @@
     <col min="1" max="1" width="19.75" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.9140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="3"/>
   </cols>
@@ -1209,12 +1221,16 @@
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -1227,13 +1243,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -1252,7 +1268,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1271,7 +1287,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1290,7 +1306,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1309,7 +1325,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1325,6 +1341,25 @@
         <v>17</v>
       </c>
       <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>64</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>

--- a/docs/vpc/SPR.xlsx
+++ b/docs/vpc/SPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidekazu Kato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E10DBF-CBD2-4787-91FD-309C320B6D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221FDA41-9699-4E78-AD08-3C7DCD7BB326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="140" windowWidth="16190" windowHeight="9650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="16190" windowHeight="9650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Name</t>
     <phoneticPr fontId="18"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>SPSR_UND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ALL 0</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1132,7 +1128,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1141,7 +1137,7 @@
     <col min="2" max="3" width="8.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.4140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="39.9140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="3"/>
   </cols>
@@ -1183,8 +1179,8 @@
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>17</v>
+      <c r="F2" s="7">
+        <v>0</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -1202,14 +1198,14 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
+      <c r="F3" s="5">
+        <v>0</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -1222,15 +1218,15 @@
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -1243,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1261,8 +1257,8 @@
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
+      <c r="F6" s="5">
+        <v>0</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1280,8 +1276,8 @@
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
+      <c r="F7" s="5">
+        <v>0</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1299,8 +1295,8 @@
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
+      <c r="F8" s="5">
+        <v>0</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1318,8 +1314,8 @@
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
+      <c r="F9" s="5">
+        <v>0</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1337,8 +1333,8 @@
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
+      <c r="F10" s="5">
+        <v>0</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1356,8 +1352,8 @@
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
+      <c r="F11" s="5">
+        <v>0</v>
       </c>
       <c r="G11" s="4"/>
     </row>
